--- a/nriss-patch-1/ig/StructureDefinition-tddui-profession.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-profession.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -389,7 +389,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J01-XdsAuthorSpecialty-CISIS/FHIR/JDV-J01-XdsAuthorSpecialty-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J01-XdsAuthorSpecialty-CISIS/FHIR/JDV-J01-XdsAuthorSpecialty-CISIS|20250721120000</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -763,7 +763,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="83.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="98.328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
